--- a/biology/Médecine/1418_en_santé_et_médecine/1418_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1418_en_santé_et_médecine/1418_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1418_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1418_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1418 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1418_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1418_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5 octobre : Le roi de France Philippe VI de Valois accorde des statuts aux barbiers chirurgiens de Montpellier[1].
-Fondation d'un hôpital au Caire par le sultan Al-Muayyad[2].
-À la demande du pape Martin V, l'évêque de Peremychl confirme la fondation de l'hôpital Sainte-Élisabeth de Lvov en Ukraine[3].
-Nicolas Joliette (fl. 1394-1426), donne ses soins à Marguerite de Bourgogne, duchesse de Guyenne, fille de Jean sans Peur[4].
-1414[5] ou 1417-1418[6] : une épidémie de danse de Saint-Guy se répand depuis Strasbourg jusqu'en Bavière.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 octobre : Le roi de France Philippe VI de Valois accorde des statuts aux barbiers chirurgiens de Montpellier.
+Fondation d'un hôpital au Caire par le sultan Al-Muayyad.
+À la demande du pape Martin V, l'évêque de Peremychl confirme la fondation de l'hôpital Sainte-Élisabeth de Lvov en Ukraine.
+Nicolas Joliette (fl. 1394-1426), donne ses soins à Marguerite de Bourgogne, duchesse de Guyenne, fille de Jean sans Peur.
+1414 ou 1417-1418 : une épidémie de danse de Saint-Guy se répand depuis Strasbourg jusqu'en Bavière.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1418_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1418_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1382-1418 : fl. Valesco de Tarente (es), clerc et médecin portugais, professeur à Bordeaux, auteur d'une Practica, imprimée pour la première fois à Lyon, chez Trechsel, en 1490[7].
-1394-1418 : fl. Jean Mernen, originaire de Saint-Malo, bachelier en médecine à Montpellier ; sa présence est attestée à la cour de Bretagne de 1404 à 1418 et à celle de Bourgogne en 1412[4].
-1408-1418 : fl. Guillaume Mathola, chirurgien barbier de l'hôpital du Saint-Esprit à Marseille[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1382-1418 : fl. Valesco de Tarente (es), clerc et médecin portugais, professeur à Bordeaux, auteur d'une Practica, imprimée pour la première fois à Lyon, chez Trechsel, en 1490.
+1394-1418 : fl. Jean Mernen, originaire de Saint-Malo, bachelier en médecine à Montpellier ; sa présence est attestée à la cour de Bretagne de 1404 à 1418 et à celle de Bourgogne en 1412.
+1408-1418 : fl. Guillaume Mathola, chirurgien barbier de l'hôpital du Saint-Esprit à Marseille.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1418_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1418_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Moshi Ibn Samuel (mort à une date inconnue), médecin juif né à Malaga en Andalousie et établi à Tlemcen[9].
-Entre 1410 et 1418 : Giovanni Marcanova (mort en  1467), professeur de médecine et de philosophie à Padoue et Bologne[10],[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Moshi Ibn Samuel (mort à une date inconnue), médecin juif né à Malaga en Andalousie et établi à Tlemcen.
+Entre 1410 et 1418 : Giovanni Marcanova (mort en  1467), professeur de médecine et de philosophie à Padoue et Bologne,.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1418_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1418_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avant le 10 août : Martin Gazel (né en 1353), maître régent à la faculté de médecine de Paris, nommé Premier médecin du roi Charles VI en 1403[12].
-Jean Le Lièvre (né à une date inconnue), professeur de médecine à Paris, médecin de Louis Ier, duc d'Orléans, puis de son fils Charles, et auteur d'un traité sur la saignée[13].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avant le 10 août : Martin Gazel (né en 1353), maître régent à la faculté de médecine de Paris, nommé Premier médecin du roi Charles VI en 1403.
+Jean Le Lièvre (né à une date inconnue), professeur de médecine à Paris, médecin de Louis Ier, duc d'Orléans, puis de son fils Charles, et auteur d'un traité sur la saignée.</t>
         </is>
       </c>
     </row>
